--- a/biology/Zoologie/Amphiura/Amphiura.xlsx
+++ b/biology/Zoologie/Amphiura/Amphiura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphiura  est un genre d'ophiures (animaux marins ressemblant à des étoiles de mer souples) de la famille des Amphiuridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des ophiures grêles, au disque central réduit mais aux bras très allongés. Elles vivent enterrées dans le sédiment, d'où elles ne laissent dépasser que leurs bras couverts d'épines articulées, qui leur servent à capturer le plancton dont elles se nourrissent.
 On en trouve dans toutes les mers ouvertes du monde (sauf la mer Noire), des pôles aux tropiques et des plages aux abysses.
@@ -543,10 +557,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est l'un des genres d'échinodermes comptant le plus grand nombre d'espèces, avec 209 espèces. Cela représente une ophiure sur dix, et un échinoderme actuel sur 35.
-Selon World Register of Marine Species                               (12 novembre 2014)[2] :
+Selon World Register of Marine Species                               (12 novembre 2014) :
 Amphiura abbreviata Koehler, 1905
 Amphiura abyssorum Norman, in Jeffreys, 1876
 Amphiura acacia Lyman, 1879
